--- a/2018周报/20180202周报/技术支撑服务人员周报日报-20180202.xlsx
+++ b/2018周报/20180202周报/技术支撑服务人员周报日报-20180202.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23256" windowHeight="13056"/>
+    <workbookView windowWidth="27015" windowHeight="8535"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>项目名称</t>
   </si>
@@ -80,6 +80,15 @@
   </si>
   <si>
     <t>张文韬</t>
+  </si>
+  <si>
+    <t>1.爱唱TV扫一扫登录、K歌房扫一扫登录的白名单
+2.修改添加歌曲操作时接口的返回数据
+3.修新建歌单存在敏感词的提示文案
+4.与客户端联调第三方登录提示绑定开关的接口</t>
+  </si>
+  <si>
+    <t>代码</t>
   </si>
   <si>
     <t>李春荣</t>
@@ -103,8 +112,14 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="27">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -116,7 +131,6 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -124,54 +138,185 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <family val="3"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <family val="3"/>
       <charset val="134"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -180,12 +325,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -219,18 +550,266 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -272,19 +851,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -575,384 +1195,392 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.88671875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.88671875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.6640625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.109375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="48.44140625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="53.77734375" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="14.8833333333333" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.4416666666667" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.6666666666667" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.8833333333333" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.6666666666667" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.1083333333333" style="4" customWidth="1"/>
+    <col min="7" max="7" width="48.4416666666667" style="4" customWidth="1"/>
+    <col min="8" max="8" width="53.775" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="17.25" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" ht="17.25" spans="1:8">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="F3" s="4"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
+      <c r="E3" s="6"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" ht="17.25" spans="1:8">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" ht="17.25" spans="1:8">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" ht="17.25" spans="1:8">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" ht="17.25" spans="1:8">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" ht="17.25" spans="1:8">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" ht="17.25" spans="1:8">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" ht="17.25" spans="1:8">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="9"/>
+    </row>
+    <row r="11" ht="69" spans="1:8">
+      <c r="A11" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="4" t="s">
+      <c r="C11" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="4"/>
-      <c r="F11" s="4"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="E11" s="6">
+        <v>20180129</v>
+      </c>
+      <c r="F11" s="6">
+        <v>20180202</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="12" ht="17.25" spans="1:8">
+      <c r="A12" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="D12" s="5" t="s">
+      <c r="C12" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" ht="17.25" spans="1:8">
+      <c r="A13" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B13" s="4" t="s">
+      <c r="B13" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D13" s="4" t="s">
+      <c r="C13" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="12"/>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A14" s="4" t="s">
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" ht="17.25" spans="1:8">
+      <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B14" s="4" t="s">
+      <c r="B14" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="4" t="s">
+      <c r="C14" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="4"/>
-      <c r="F14" s="4"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="4"/>
-    </row>
-    <row r="15" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="8"/>
+      <c r="H14" s="6"/>
+    </row>
+    <row r="15" ht="17.25" spans="1:8">
+      <c r="A15" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D15" s="5" t="s">
+      <c r="C15" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="4"/>
-      <c r="F15" s="4"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" ht="17.399999999999999" x14ac:dyDescent="0.25">
-      <c r="B16" s="5" t="s">
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="16"/>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" ht="17.25" spans="2:8">
+      <c r="B16" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="5" t="s">
+      <c r="C16" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="8:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="H17" s="15"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" ht="34.5" customHeight="1" spans="8:8">
+      <c r="H17" s="17"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" s="17"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" s="17"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" s="17"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" s="17"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" s="17"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" s="17"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" s="17"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" s="17"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A11" s="17"/>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/2018周报/20180202周报/技术支撑服务人员周报日报-20180202.xlsx
+++ b/2018周报/20180202周报/技术支撑服务人员周报日报-20180202.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="27015" windowHeight="8535"/>
+    <workbookView windowWidth="24180" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
   <si>
     <t>项目名称</t>
   </si>
@@ -98,6 +98,13 @@
   </si>
   <si>
     <t>何娟</t>
+  </si>
+  <si>
+    <t>白金会员实体卡活动：
+1.兑换码增加有效期限制、记录成功用户激活所使用的兑换码到数据库和业支日志
+2.做防撞库机制，连续三次（次数可配置）兑换码错误，锁定一定时间（时间可配置）
+使用模板配置：
+白金会员7天免费体验活动--长期活动</t>
   </si>
   <si>
     <t>袁常鑫</t>
@@ -115,11 +122,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -160,6 +167,64 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -170,75 +235,46 @@
     <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -251,22 +287,21 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -274,49 +309,14 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -331,187 +331,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -551,6 +545,15 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -566,11 +569,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -586,6 +595,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -614,21 +634,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -637,27 +642,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -666,139 +660,139 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1204,7 +1198,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1469,7 +1463,7 @@
       <c r="G13" s="14"/>
       <c r="H13" s="15"/>
     </row>
-    <row r="14" ht="17.25" spans="1:8">
+    <row r="14" ht="120.75" spans="1:8">
       <c r="A14" s="6" t="s">
         <v>8</v>
       </c>
@@ -1482,10 +1476,18 @@
       <c r="D14" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="6"/>
+      <c r="E14" s="6">
+        <v>20180129</v>
+      </c>
+      <c r="F14" s="6">
+        <v>20180202</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>22</v>
+      </c>
     </row>
     <row r="15" ht="17.25" spans="1:8">
       <c r="A15" s="7" t="s">
@@ -1495,7 +1497,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>11</v>
@@ -1510,7 +1512,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>11</v>
@@ -1543,7 +1545,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/2018周报/20180202周报/技术支撑服务人员周报日报-20180202.xlsx
+++ b/2018周报/20180202周报/技术支撑服务人员周报日报-20180202.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
   <si>
     <t>项目名称</t>
   </si>
@@ -108,6 +108,13 @@
   </si>
   <si>
     <t>袁常鑫</t>
+  </si>
+  <si>
+    <t>1.协同比较分析三种日志系统中间件的优劣
+2.演唱会3.0重构相关接口的wiki校对及深入梳理</t>
+  </si>
+  <si>
+    <t>文档</t>
   </si>
   <si>
     <t>贾洋</t>
@@ -122,9 +129,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -167,53 +174,27 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -233,87 +214,113 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="33">
@@ -331,181 +338,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -549,6 +556,30 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
@@ -569,17 +600,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -610,15 +635,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -633,25 +649,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -660,136 +667,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="20" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="20" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1198,7 +1205,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1489,7 +1496,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="15" ht="17.25" spans="1:8">
+    <row r="15" ht="34.5" spans="1:8">
       <c r="A15" s="7" t="s">
         <v>8</v>
       </c>
@@ -1502,17 +1509,25 @@
       <c r="D15" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="16"/>
-      <c r="H15" s="9"/>
+      <c r="E15" s="6">
+        <v>20180129</v>
+      </c>
+      <c r="F15" s="6">
+        <v>20180202</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="16" ht="17.25" spans="2:8">
       <c r="B16" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>11</v>
@@ -1545,7 +1560,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/2018周报/20180202周报/技术支撑服务人员周报日报-20180202.xlsx
+++ b/2018周报/20180202周报/技术支撑服务人员周报日报-20180202.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31">
   <si>
     <t>项目名称</t>
   </si>
@@ -112,9 +112,6 @@
   <si>
     <t>1.协同比较分析三种日志系统中间件的优劣
 2.演唱会3.0重构相关接口的wiki校对及深入梳理</t>
-  </si>
-  <si>
-    <t>文档</t>
   </si>
   <si>
     <t>贾洋</t>
@@ -128,10 +125,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -174,6 +171,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -182,25 +222,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -224,103 +278,46 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
     </font>
   </fonts>
   <fills count="33">
@@ -338,181 +335,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -557,30 +554,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -635,6 +608,30 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -655,10 +652,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -667,136 +664,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="20" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1205,7 +1202,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1518,16 +1515,14 @@
       <c r="G15" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="H15" s="9" t="s">
-        <v>29</v>
-      </c>
+      <c r="H15" s="9"/>
     </row>
     <row r="16" ht="17.25" spans="2:8">
       <c r="B16" s="7" t="s">
         <v>9</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>11</v>
@@ -1560,7 +1555,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/2018周报/20180202周报/技术支撑服务人员周报日报-20180202.xlsx
+++ b/2018周报/20180202周报/技术支撑服务人员周报日报-20180202.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="18730"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\comm\week\weekReport\2018周报\20180202周报\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="33">
   <si>
     <t>项目名称</t>
   </si>
@@ -129,11 +124,15 @@
 2.处理http根据配置选项调用协议</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
+  <si>
+    <t>新春活动修改</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -315,6 +314,74 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -334,7 +401,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr val="window" lastClr="CEEACA"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -616,7 +683,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -884,9 +951,15 @@
       <c r="D13" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="E13" s="4"/>
-      <c r="F13" s="4"/>
-      <c r="G13" s="12"/>
+      <c r="E13" s="4">
+        <v>20180129</v>
+      </c>
+      <c r="F13" s="4">
+        <v>20180202</v>
+      </c>
+      <c r="G13" s="12" t="s">
+        <v>32</v>
+      </c>
       <c r="H13" s="13"/>
     </row>
     <row r="14" spans="1:8" ht="120.75" x14ac:dyDescent="0.15">

--- a/2018周报/20180202周报/技术支撑服务人员周报日报-20180202.xlsx
+++ b/2018周报/20180202周报/技术支撑服务人员周报日报-20180202.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
+    <workbookView windowWidth="23895" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
   <si>
     <t>项目名称</t>
   </si>
@@ -77,6 +77,13 @@
   </si>
   <si>
     <t>陈平</t>
+  </si>
+  <si>
+    <t>1.处理MV添加vip标识
+2.处理http根据配置选项调用协议</t>
+  </si>
+  <si>
+    <t>代码</t>
   </si>
   <si>
     <t>张文韬</t>
@@ -88,13 +95,13 @@
 4.与客户端联调第三方登录提示绑定开关的接口</t>
   </si>
   <si>
-    <t>代码</t>
-  </si>
-  <si>
     <t>李春荣</t>
   </si>
   <si>
     <t>曾昌林</t>
+  </si>
+  <si>
+    <t>新春活动修改</t>
   </si>
   <si>
     <t>何娟</t>
@@ -117,23 +124,28 @@
     <t>贾洋</t>
   </si>
   <si>
+    <t>胡阳</t>
+  </si>
+  <si>
+    <t>1.配合ios测试升级页面提示
+2.整理学习3.0相关技术
+3.联调内容http接口</t>
+  </si>
+  <si>
     <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
-  </si>
-  <si>
-    <t>1.处理MV添加vip标识
-2.处理http根据配置选项调用协议</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>新春活动修改</t>
-    <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="10" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -174,32 +186,156 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -208,12 +344,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -247,18 +569,266 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -297,97 +867,64 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -401,7 +938,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="CEEACA"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -674,419 +1211,441 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="53.75" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="14.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="17.25" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4"/>
-      <c r="F2" s="4"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="7"/>
-    </row>
-    <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+      <c r="E2" s="6"/>
+      <c r="F2" s="6"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="9"/>
+    </row>
+    <row r="3" ht="17.25" spans="1:8">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="7"/>
-    </row>
-    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+      <c r="E3" s="6"/>
+      <c r="G3" s="8"/>
+      <c r="H3" s="9"/>
+    </row>
+    <row r="4" ht="17.25" spans="1:8">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="4"/>
-      <c r="F4" s="4"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+      <c r="E4" s="6"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="8"/>
+      <c r="H4" s="9"/>
+    </row>
+    <row r="5" ht="17.25" spans="1:8">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" ht="17.25" spans="1:8">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" ht="17.25" spans="1:8">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" ht="17.25" spans="1:8">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" ht="17.25" spans="1:8">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="4"/>
-      <c r="F9" s="4"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="12"/>
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" ht="34.5" spans="1:8">
+      <c r="A10" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="4">
+      <c r="E10" s="6">
         <v>20180129</v>
       </c>
-      <c r="F10" s="4">
+      <c r="F10" s="6">
         <v>20180202</v>
       </c>
-      <c r="G10" s="11" t="s">
+      <c r="G10" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="11" ht="69" spans="1:8">
+      <c r="A11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="6">
+        <v>20180129</v>
+      </c>
+      <c r="F11" s="6">
+        <v>20180202</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" ht="17.25" spans="1:8">
+      <c r="A12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" ht="17.25" spans="1:8">
+      <c r="A13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="6">
+        <v>20180129</v>
+      </c>
+      <c r="F13" s="6">
+        <v>20180202</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" ht="120.75" spans="1:8">
+      <c r="A14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="6">
+        <v>20180129</v>
+      </c>
+      <c r="F14" s="6">
+        <v>20180202</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="15" ht="34.5" spans="1:8">
+      <c r="A15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="6">
+        <v>20180129</v>
+      </c>
+      <c r="F15" s="6">
+        <v>20180202</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="9"/>
+    </row>
+    <row r="16" ht="17.25" spans="2:8">
+      <c r="B16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="H10" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="69" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
+      <c r="D16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" ht="34.5" customHeight="1" spans="1:8">
+      <c r="A17" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B17" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C11" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D11" s="4" t="s">
+      <c r="C17" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="4">
+      <c r="E17" s="6">
         <v>20180129</v>
       </c>
-      <c r="F11" s="4">
+      <c r="F17" s="6">
         <v>20180202</v>
       </c>
-      <c r="G11" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="4">
-        <v>20180129</v>
-      </c>
-      <c r="F13" s="4">
-        <v>20180202</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" ht="120.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="4">
-        <v>20180129</v>
-      </c>
-      <c r="F14" s="4">
-        <v>20180202</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>26</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>27</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="4">
-        <v>20180129</v>
-      </c>
-      <c r="F15" s="4">
-        <v>20180202</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="B16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="8:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="H17" s="15"/>
+      <c r="G17" s="12" t="s">
+        <v>33</v>
+      </c>
+      <c r="H17" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="16" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="17"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="17"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="17"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="17"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="17"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="17"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="17"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="17"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="17"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="17"/>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="9" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/2018周报/20180202周报/技术支撑服务人员周报日报-20180202.xlsx
+++ b/2018周报/20180202周报/技术支撑服务人员周报日报-20180202.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="23895" windowHeight="10350"/>
+    <workbookView windowWidth="24180" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
   <si>
     <t>项目名称</t>
   </si>
@@ -61,6 +61,12 @@
     <t>凌河源</t>
   </si>
   <si>
+    <t>白金会员订购需求开发及彩铃改版逻辑梳理</t>
+  </si>
+  <si>
+    <t>代码</t>
+  </si>
+  <si>
     <t>陆晨曦</t>
   </si>
   <si>
@@ -81,9 +87,6 @@
   <si>
     <t>1.处理MV添加vip标识
 2.处理http根据配置选项调用协议</t>
-  </si>
-  <si>
-    <t>代码</t>
   </si>
   <si>
     <t>张文韬</t>
@@ -140,10 +143,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -186,24 +189,30 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -219,6 +228,21 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -226,59 +250,73 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -292,50 +330,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="34">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -350,138 +353,174 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -489,48 +528,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,6 +592,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -605,6 +617,30 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -623,47 +659,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -673,10 +670,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -685,136 +682,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="6" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1220,7 +1217,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1310,10 +1307,18 @@
       <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="9"/>
+      <c r="E4" s="6">
+        <v>20180129</v>
+      </c>
+      <c r="F4" s="6">
+        <v>20180202</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" s="9" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="5" ht="17.25" spans="1:8">
       <c r="A5" s="6" t="s">
@@ -1323,7 +1328,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>11</v>
@@ -1341,7 +1346,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>11</v>
@@ -1359,7 +1364,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>11</v>
@@ -1377,7 +1382,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>11</v>
@@ -1395,7 +1400,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>11</v>
@@ -1413,7 +1418,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>11</v>
@@ -1425,10 +1430,10 @@
         <v>20180202</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="11" ht="69" spans="1:8">
@@ -1439,7 +1444,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>11</v>
@@ -1451,10 +1456,10 @@
         <v>20180202</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" ht="17.25" spans="1:8">
@@ -1465,7 +1470,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>11</v>
@@ -1483,7 +1488,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>11</v>
@@ -1495,7 +1500,7 @@
         <v>20180202</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="H13" s="15"/>
     </row>
@@ -1507,7 +1512,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>11</v>
@@ -1519,10 +1524,10 @@
         <v>20180202</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" ht="34.5" spans="1:8">
@@ -1533,7 +1538,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>11</v>
@@ -1545,7 +1550,7 @@
         <v>20180202</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="H15" s="9"/>
     </row>
@@ -1554,7 +1559,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>11</v>
@@ -1572,7 +1577,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>11</v>
@@ -1584,7 +1589,7 @@
         <v>20180202</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="H17" s="9"/>
     </row>
@@ -1608,7 +1613,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/2018周报/20180202周报/技术支撑服务人员周报日报-20180202.xlsx
+++ b/2018周报/20180202周报/技术支撑服务人员周报日报-20180202.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView windowWidth="24180" windowHeight="13050"/>
+    <workbookView windowWidth="24135" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38">
   <si>
     <t>项目名称</t>
   </si>
@@ -55,16 +55,22 @@
     <t>北京烽火</t>
   </si>
   <si>
+    <t>白金会员订购需求开发及彩铃改版逻辑梳理</t>
+  </si>
+  <si>
+    <t>代码</t>
+  </si>
+  <si>
     <t>杜智恒</t>
   </si>
   <si>
+    <t>gateway端数据写入flume用于直播实时计算平台</t>
+  </si>
+  <si>
+    <t>代码，文档</t>
+  </si>
+  <si>
     <t>凌河源</t>
-  </si>
-  <si>
-    <t>白金会员订购需求开发及彩铃改版逻辑梳理</t>
-  </si>
-  <si>
-    <t>代码</t>
   </si>
   <si>
     <t>陆晨曦</t>
@@ -143,10 +149,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="26">
     <font>
@@ -218,6 +224,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -226,68 +239,67 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="12"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,31 +320,25 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -353,181 +359,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -606,26 +612,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -647,6 +638,30 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -655,25 +670,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="22" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -682,136 +688,136 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0">
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1216,8 +1222,8 @@
   <sheetPr/>
   <dimension ref="A1:H17"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1272,10 +1278,18 @@
       <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="9"/>
+      <c r="E2" s="6">
+        <v>20180129</v>
+      </c>
+      <c r="F2" s="6">
+        <v>20180202</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="9" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="3" ht="17.25" spans="1:8">
       <c r="A3" s="6" t="s">
@@ -1285,16 +1299,25 @@
         <v>9</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="6"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="9"/>
-    </row>
-    <row r="4" ht="17.25" spans="1:8">
+      <c r="E3" s="6">
+        <v>20180129</v>
+      </c>
+      <c r="F3" s="6">
+        <v>20180202</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H3" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" ht="17.25" spans="1:4">
       <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
@@ -1302,22 +1325,10 @@
         <v>9</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="D4" s="7" t="s">
         <v>11</v>
-      </c>
-      <c r="E4" s="6">
-        <v>20180129</v>
-      </c>
-      <c r="F4" s="6">
-        <v>20180202</v>
-      </c>
-      <c r="G4" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="5" ht="17.25" spans="1:8">
@@ -1328,7 +1339,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="6" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>11</v>
@@ -1346,7 +1357,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="D6" s="7" t="s">
         <v>11</v>
@@ -1364,7 +1375,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="D7" s="7" t="s">
         <v>11</v>
@@ -1382,7 +1393,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>11</v>
@@ -1400,7 +1411,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D9" s="7" t="s">
         <v>11</v>
@@ -1418,7 +1429,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="D10" s="6" t="s">
         <v>11</v>
@@ -1430,10 +1441,10 @@
         <v>20180202</v>
       </c>
       <c r="G10" s="13" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="H10" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" ht="69" spans="1:8">
@@ -1444,7 +1455,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="6" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="D11" s="6" t="s">
         <v>11</v>
@@ -1456,10 +1467,10 @@
         <v>20180202</v>
       </c>
       <c r="G11" s="13" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="12" ht="17.25" spans="1:8">
@@ -1470,7 +1481,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="D12" s="7" t="s">
         <v>11</v>
@@ -1488,7 +1499,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D13" s="6" t="s">
         <v>11</v>
@@ -1500,7 +1511,7 @@
         <v>20180202</v>
       </c>
       <c r="G13" s="14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="H13" s="15"/>
     </row>
@@ -1512,7 +1523,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D14" s="6" t="s">
         <v>11</v>
@@ -1524,10 +1535,10 @@
         <v>20180202</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="H14" s="6" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="15" ht="34.5" spans="1:8">
@@ -1538,7 +1549,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>11</v>
@@ -1550,7 +1561,7 @@
         <v>20180202</v>
       </c>
       <c r="G15" s="16" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="H15" s="9"/>
     </row>
@@ -1559,7 +1570,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D16" s="7" t="s">
         <v>11</v>
@@ -1577,7 +1588,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="D17" s="7" t="s">
         <v>11</v>
@@ -1589,7 +1600,7 @@
         <v>20180202</v>
       </c>
       <c r="G17" s="12" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="H17" s="9"/>
     </row>
@@ -1613,7 +1624,7 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="2" spans="1:1">

--- a/2018周报/20180202周报/技术支撑服务人员周报日报-20180202.xlsx
+++ b/2018周报/20180202周报/技术支撑服务人员周报日报-20180202.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
-  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+  <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24135" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="北京烽火" sheetId="2" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40">
   <si>
     <t>项目名称</t>
   </si>
@@ -86,6 +86,12 @@
   </si>
   <si>
     <t>罗健</t>
+  </si>
+  <si>
+    <t>MIGU3.0技术架构规范研究输出（日志收集工具选型3-Fluentd）</t>
+  </si>
+  <si>
+    <t>文档&amp;代码</t>
   </si>
   <si>
     <t>陈平</t>
@@ -143,20 +149,18 @@
   <si>
     <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
   </si>
-  <si>
-    <t>文档&amp;代码</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
-  <si>
-    <t>MIGU3.0技术架构规范研究输出（日志收集工具选型3-Fluentd）</t>
-    <phoneticPr fontId="8" type="noConversion"/>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+  </numFmts>
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -198,24 +202,155 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -224,12 +359,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.59999389629810485"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -263,18 +584,266 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="3">
+  <cellStyleXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -313,19 +882,60 @@
     <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="3">
+  <cellStyles count="51">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="常规 2" xfId="1"/>
-    <cellStyle name="常规 3" xfId="2"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="常规 2" xfId="49"/>
+    <cellStyle name="常规 3" xfId="50"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -616,461 +1226,464 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="H15" sqref="H15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
-    <col min="1" max="1" width="14.875" style="2" customWidth="1"/>
-    <col min="2" max="2" width="11.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="15.625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="17.875" style="2" customWidth="1"/>
-    <col min="5" max="5" width="21.625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="23.125" style="2" customWidth="1"/>
-    <col min="7" max="7" width="48.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="53.75" style="2" customWidth="1"/>
-    <col min="9" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="14.875" style="4" customWidth="1"/>
+    <col min="2" max="2" width="11.5" style="4" customWidth="1"/>
+    <col min="3" max="3" width="15.625" style="4" customWidth="1"/>
+    <col min="4" max="4" width="17.875" style="4" customWidth="1"/>
+    <col min="5" max="5" width="21.625" style="4" customWidth="1"/>
+    <col min="6" max="6" width="23.125" style="4" customWidth="1"/>
+    <col min="7" max="7" width="48.5" style="4" customWidth="1"/>
+    <col min="8" max="8" width="53.75" style="4" customWidth="1"/>
+    <col min="9" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="3" t="s">
+    <row r="1" s="3" customFormat="1" ht="30" customHeight="1" spans="1:8">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="5" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+    <row r="2" ht="17.25" spans="1:8">
+      <c r="A2" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="5" t="s">
+      <c r="B2" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E2" s="4">
+      <c r="E2" s="6">
         <v>20180129</v>
       </c>
-      <c r="F2" s="4">
+      <c r="F2" s="6">
         <v>20180202</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="G2" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H2" s="7" t="s">
+      <c r="H2" s="9" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A3" s="4" t="s">
+    <row r="3" ht="17.25" spans="1:8">
+      <c r="A3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E3" s="4">
+      <c r="E3" s="6">
         <v>20180129</v>
       </c>
-      <c r="F3" s="4">
+      <c r="F3" s="6">
         <v>20180202</v>
       </c>
-      <c r="G3" s="6" t="s">
+      <c r="G3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A4" s="4" t="s">
+    <row r="4" ht="17.25" spans="1:4">
+      <c r="A4" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="7" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A5" s="4" t="s">
+    <row r="5" ht="17.25" spans="1:8">
+      <c r="A5" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="4"/>
-      <c r="F5" s="4"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A6" s="4" t="s">
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="9"/>
+    </row>
+    <row r="6" ht="17.25" spans="1:8">
+      <c r="A6" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="4"/>
-      <c r="F6" s="4"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A7" s="4" t="s">
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="8"/>
+      <c r="H6" s="9"/>
+    </row>
+    <row r="7" ht="17.25" spans="1:8">
+      <c r="A7" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="D7" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="4"/>
-      <c r="F7" s="4"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A8" s="5" t="s">
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="10"/>
+      <c r="H7" s="9"/>
+    </row>
+    <row r="8" ht="17.25" spans="1:8">
+      <c r="A8" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="4"/>
-      <c r="F8" s="4"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A9" s="5" t="s">
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="8"/>
+      <c r="H8" s="9"/>
+    </row>
+    <row r="9" ht="34.5" spans="1:8">
+      <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="7" t="s">
         <v>9</v>
       </c>
-      <c r="C9" s="9" t="s">
+      <c r="C9" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="D9" s="5" t="s">
+      <c r="D9" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="4">
+      <c r="E9" s="6">
         <v>20180129</v>
       </c>
-      <c r="F9" s="4">
+      <c r="F9" s="6">
         <v>20180202</v>
       </c>
-      <c r="G9" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="H9" s="7" t="s">
+      <c r="G9" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="H9" s="9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" ht="34.5" spans="1:8">
+      <c r="A10" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" s="6">
+        <v>20180129</v>
+      </c>
+      <c r="F10" s="6">
+        <v>20180202</v>
+      </c>
+      <c r="G10" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" ht="69" spans="1:8">
+      <c r="A11" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" s="6">
+        <v>20180129</v>
+      </c>
+      <c r="F11" s="6">
+        <v>20180202</v>
+      </c>
+      <c r="G11" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="H11" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" ht="17.25" spans="1:8">
+      <c r="A12" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="12"/>
+      <c r="H12" s="9"/>
+    </row>
+    <row r="13" ht="17.25" spans="1:8">
+      <c r="A13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" s="6">
+        <v>20180129</v>
+      </c>
+      <c r="F13" s="6">
+        <v>20180202</v>
+      </c>
+      <c r="G13" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="H13" s="15"/>
+    </row>
+    <row r="14" ht="120.75" spans="1:8">
+      <c r="A14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" s="6">
+        <v>20180129</v>
+      </c>
+      <c r="F14" s="6">
+        <v>20180202</v>
+      </c>
+      <c r="G14" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" ht="34.5" spans="1:8">
+      <c r="A15" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" s="6">
+        <v>20180129</v>
+      </c>
+      <c r="F15" s="6">
+        <v>20180202</v>
+      </c>
+      <c r="G15" s="16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" ht="17.25" spans="2:8">
+      <c r="B16" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+    </row>
+    <row r="17" ht="34.5" customHeight="1" spans="1:8">
+      <c r="A17" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" s="6">
+        <v>20180129</v>
+      </c>
+      <c r="F17" s="6">
+        <v>20180202</v>
+      </c>
+      <c r="G17" s="12" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="10" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A10" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E10" s="4">
-        <v>20180129</v>
-      </c>
-      <c r="F10" s="4">
-        <v>20180202</v>
-      </c>
-      <c r="G10" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="H10" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="69" x14ac:dyDescent="0.15">
-      <c r="A11" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E11" s="4">
-        <v>20180129</v>
-      </c>
-      <c r="F11" s="4">
-        <v>20180202</v>
-      </c>
-      <c r="G11" s="11" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A12" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B12" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="9" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E12" s="4"/>
-      <c r="F12" s="4"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="A13" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="4" t="s">
-        <v>28</v>
-      </c>
-      <c r="D13" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E13" s="4">
-        <v>20180129</v>
-      </c>
-      <c r="F13" s="4">
-        <v>20180202</v>
-      </c>
-      <c r="G13" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="H13" s="13"/>
-    </row>
-    <row r="14" spans="1:8" ht="120.75" x14ac:dyDescent="0.15">
-      <c r="A14" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="E14" s="4">
-        <v>20180129</v>
-      </c>
-      <c r="F14" s="4">
-        <v>20180202</v>
-      </c>
-      <c r="G14" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="H14" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
-      <c r="A15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="B15" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E15" s="4">
-        <v>20180129</v>
-      </c>
-      <c r="F15" s="4">
-        <v>20180202</v>
-      </c>
-      <c r="G15" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
-      <c r="B16" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="D16" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E16" s="4"/>
-      <c r="F16" s="4"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="7"/>
-    </row>
-    <row r="17" spans="1:8" ht="34.5" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A17" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="B17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D17" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="E17" s="4">
-        <v>20180129</v>
-      </c>
-      <c r="F17" s="4">
-        <v>20180202</v>
-      </c>
-      <c r="G17" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="H17" s="7"/>
+      <c r="H17" s="9"/>
     </row>
   </sheetData>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
   <dimension ref="A1:A11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A1" sqref="A1:A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A1" s="15" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A2" s="16"/>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A3" s="16"/>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A4" s="16"/>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A5" s="16"/>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A6" s="16"/>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A7" s="16"/>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A8" s="16"/>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A9" s="16"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A10" s="16"/>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
-      <c r="A11" s="16"/>
+    <row r="1" spans="1:1">
+      <c r="A1" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="2"/>
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="2"/>
+    </row>
+    <row r="4" spans="1:1">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:1">
+      <c r="A5" s="2"/>
+    </row>
+    <row r="6" spans="1:1">
+      <c r="A6" s="2"/>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7" s="2"/>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8" s="2"/>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9" s="2"/>
+    </row>
+    <row r="10" spans="1:1">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:1">
+      <c r="A11" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="8" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/2018周报/20180202周报/技术支撑服务人员周报日报-20180202.xlsx
+++ b/2018周报/20180202周报/技术支撑服务人员周报日报-20180202.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="19029"/>
-  <workbookPr codeName="ThisWorkbook"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git\weekReport\2018周报\20180202周报\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28695" windowHeight="13050"/>
   </bookViews>
@@ -20,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="45">
   <si>
     <t>项目名称</t>
   </si>
@@ -60,99 +55,95 @@
     <t>北京烽火</t>
   </si>
   <si>
+    <t>代码</t>
+  </si>
+  <si>
+    <t>凌河源</t>
+  </si>
+  <si>
+    <t>陆晨曦</t>
+  </si>
+  <si>
+    <t>赵小平</t>
+  </si>
+  <si>
+    <t>陈毅昌</t>
+  </si>
+  <si>
+    <t>王琪</t>
+  </si>
+  <si>
+    <t>贾洋</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
+  </si>
+  <si>
+    <t>1.协同比较分析三种日志系统中间件的优劣
+2.演唱会3.0重构相关接口的wiki校对及深入梳理</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>白金会员订购需求开发及彩铃改版逻辑梳理</t>
-  </si>
-  <si>
-    <t>代码</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>孙柏霖 1白金会员订购需求开发及彩铃改版逻辑梳理</t>
+    <phoneticPr fontId="9" type="noConversion"/>
+  </si>
+  <si>
+    <t>1白金会员订购需求开发及彩铃改版逻辑梳理</t>
   </si>
   <si>
     <t>杜智恒</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>gateway端数据写入flume用于直播实时计算平台</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>代码，文档</t>
-  </si>
-  <si>
-    <t>凌河源</t>
-  </si>
-  <si>
-    <t>陆晨曦</t>
-  </si>
-  <si>
-    <t>赵小平</t>
-  </si>
-  <si>
-    <t>陈毅昌</t>
-  </si>
-  <si>
-    <t>王琪</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>罗健</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>MIGU3.0技术架构规范研究输出（日志收集工具选型3-Fluentd）</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>文档&amp;代码</t>
-  </si>
-  <si>
-    <t>陈平</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>1.处理MV添加vip标识
 2.处理http根据配置选项调用协议</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>陈平</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>代码</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>张文韬</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>1.爱唱TV扫一扫登录、K歌房扫一扫登录的白名单
 2.修改添加歌曲操作时接口的返回数据
 3.修新建歌单存在敏感词的提示文案
 4.与客户端联调第三方登录提示绑定开关的接口</t>
+    <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
     <t>李春荣</t>
-  </si>
-  <si>
-    <t>曾昌林</t>
-  </si>
-  <si>
-    <t>新春活动修改</t>
-  </si>
-  <si>
-    <t>何娟</t>
-  </si>
-  <si>
-    <t>白金会员实体卡活动：
-1.兑换码增加有效期限制、记录成功用户激活所使用的兑换码到数据库和业支日志
-2.做防撞库机制，连续三次（次数可配置）兑换码错误，锁定一定时间（时间可配置）
-使用模板配置：
-白金会员7天免费体验活动--长期活动</t>
-  </si>
-  <si>
-    <t>袁常鑫</t>
-  </si>
-  <si>
-    <t>贾洋</t>
-  </si>
-  <si>
-    <t>胡阳</t>
-  </si>
-  <si>
-    <t>1.配合ios测试升级页面提示
-2.整理学习3.0相关技术
-3.联调内容http接口</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1.完成cachecloud创建用户编写                2.测试完善cachecloud创建用户和更改用户       </t>
-  </si>
-  <si>
-    <t>1.协同比较分析三种日志系统中间件的优劣
-2.演唱会3.0重构相关接口的wiki校对及深入梳理</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
@@ -175,6 +166,7 @@
         <sz val="12"/>
         <color rgb="FF000000"/>
         <rFont val="微软雅黑"/>
+        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t xml:space="preserve">频彩铃逻辑梳理
@@ -183,15 +175,49 @@
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
   <si>
+    <t>曾昌林</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>新春活动修改</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
     <t>代码</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>何娟</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>白金会员实体卡活动：
+1.兑换码增加有效期限制、记录成功用户激活所使用的兑换码到数据库和业支日志
+2.做防撞库机制，连续三次（次数可配置）兑换码错误，锁定一定时间（时间可配置）
+使用模板配置：
+白金会员7天免费体验活动--长期活动</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>袁常鑫</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡阳</t>
+    <phoneticPr fontId="8" type="noConversion"/>
+  </si>
+  <si>
+    <t>1.配合ios测试升级页面提示
+2.整理学习3.0相关技术
+3.联调内容http接口</t>
     <phoneticPr fontId="8" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -203,6 +229,7 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
@@ -210,24 +237,28 @@
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
       <name val="微软雅黑"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -235,25 +266,14 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="宋体"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="微软雅黑"/>
-      <family val="2"/>
+      <family val="3"/>
       <charset val="134"/>
     </font>
     <font>
@@ -264,8 +284,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
-      <color theme="1"/>
+      <sz val="9"/>
       <name val="宋体"/>
       <family val="3"/>
       <charset val="134"/>
@@ -330,7 +349,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -373,14 +392,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -691,7 +705,7 @@
   <dimension ref="A1:H17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -753,10 +767,10 @@
         <v>20180202</v>
       </c>
       <c r="G2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="H2" s="7" t="s">
         <v>12</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
@@ -767,7 +781,7 @@
         <v>9</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="D3" s="5" t="s">
         <v>11</v>
@@ -779,10 +793,10 @@
         <v>20180202</v>
       </c>
       <c r="G3" s="6" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="H3" s="7" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
@@ -793,7 +807,7 @@
         <v>9</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="D4" s="5" t="s">
         <v>11</v>
@@ -807,7 +821,7 @@
         <v>9</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="D5" s="5" t="s">
         <v>11</v>
@@ -825,7 +839,7 @@
         <v>9</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="D6" s="5" t="s">
         <v>11</v>
@@ -843,7 +857,7 @@
         <v>9</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="D7" s="5" t="s">
         <v>11</v>
@@ -861,7 +875,7 @@
         <v>9</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="D8" s="5" t="s">
         <v>11</v>
@@ -879,7 +893,7 @@
         <v>9</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="D9" s="5" t="s">
         <v>11</v>
@@ -891,10 +905,10 @@
         <v>20180202</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="H9" s="7" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
@@ -905,7 +919,7 @@
         <v>9</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="D10" s="4" t="s">
         <v>11</v>
@@ -917,10 +931,10 @@
         <v>20180202</v>
       </c>
       <c r="G10" s="11" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="H10" s="7" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="69" x14ac:dyDescent="0.15">
@@ -931,7 +945,7 @@
         <v>9</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="D11" s="4" t="s">
         <v>11</v>
@@ -943,10 +957,10 @@
         <v>20180202</v>
       </c>
       <c r="G11" s="11" t="s">
-        <v>28</v>
+        <v>34</v>
       </c>
       <c r="H11" s="7" t="s">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="51.75" x14ac:dyDescent="0.15">
@@ -957,7 +971,7 @@
         <v>9</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D12" s="5" t="s">
         <v>11</v>
@@ -968,11 +982,11 @@
       <c r="F12" s="4">
         <v>20180202</v>
       </c>
-      <c r="G12" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="18" t="s">
-        <v>41</v>
+      <c r="G12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="7" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
@@ -983,7 +997,7 @@
         <v>9</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D13" s="4" t="s">
         <v>11</v>
@@ -995,7 +1009,7 @@
         <v>20180202</v>
       </c>
       <c r="G13" s="12" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="H13" s="13"/>
     </row>
@@ -1007,7 +1021,7 @@
         <v>9</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="D14" s="4" t="s">
         <v>11</v>
@@ -1019,10 +1033,10 @@
         <v>20180202</v>
       </c>
       <c r="G14" s="6" t="s">
-        <v>33</v>
+        <v>41</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="34.5" x14ac:dyDescent="0.15">
@@ -1033,7 +1047,7 @@
         <v>9</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="D15" s="5" t="s">
         <v>11</v>
@@ -1044,11 +1058,11 @@
       <c r="F15" s="4">
         <v>20180202</v>
       </c>
-      <c r="G15" s="16" t="s">
-        <v>39</v>
+      <c r="G15" s="17" t="s">
+        <v>20</v>
       </c>
       <c r="H15" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="17.25" x14ac:dyDescent="0.15">
@@ -1056,7 +1070,7 @@
         <v>9</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>35</v>
+        <v>18</v>
       </c>
       <c r="D16" s="5" t="s">
         <v>11</v>
@@ -1074,7 +1088,7 @@
         <v>9</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D17" s="5" t="s">
         <v>11</v>
@@ -1086,7 +1100,7 @@
         <v>20180202</v>
       </c>
       <c r="G17" s="10" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H17" s="7"/>
     </row>
@@ -1099,54 +1113,65 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:A11"/>
+      <selection activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A1" s="14" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.15">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A2" s="15"/>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A3" s="15"/>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A4" s="15"/>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A5" s="15"/>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A6" s="15"/>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A7" s="15"/>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A8" s="15"/>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A9" s="15"/>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="F9" t="s">
+        <v>10</v>
+      </c>
+      <c r="G9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="15"/>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A11" s="15"/>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B22" s="16" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="A1:A11"/>
   </mergeCells>
-  <phoneticPr fontId="10" type="noConversion"/>
+  <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>